--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shakt\OneDrive\Documents\MyProjects\projects\mridul_mtech_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaktimukker/Documents/MyProjects/projects/bacterial-growth-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23AB28-D1B5-43BB-86E5-8C6DBF4BDC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F855BBA-477C-634C-AD71-A866DE3461F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="T3" sheetId="2" r:id="rId3"/>
     <sheet name="T2_test" sheetId="3" r:id="rId4"/>
     <sheet name="T3_test" sheetId="4" r:id="rId5"/>
+    <sheet name="x_vs_t" sheetId="6" r:id="rId6"/>
+    <sheet name="co2_vs_t" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Y</t>
   </si>
@@ -59,6 +61,15 @@
   </si>
   <si>
     <t>mRL</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>co2</t>
   </si>
 </sst>
 </file>
@@ -378,13 +389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1736041-EDB5-470E-A235-C499FB83E8A9}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65</v>
       </c>
@@ -436,7 +447,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65</v>
       </c>
@@ -462,7 +473,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -488,7 +499,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -514,7 +525,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -540,7 +551,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -566,7 +577,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -592,7 +603,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -618,7 +629,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -644,7 +655,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -670,7 +681,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>75</v>
       </c>
@@ -696,7 +707,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>75</v>
       </c>
@@ -732,15 +743,15 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:F13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65</v>
       </c>
@@ -780,7 +791,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65</v>
       </c>
@@ -800,7 +811,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -820,7 +831,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -840,7 +851,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -860,7 +871,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -880,7 +891,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -900,7 +911,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -920,7 +931,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -940,7 +951,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -960,7 +971,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>75</v>
       </c>
@@ -980,7 +991,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>75</v>
       </c>
@@ -1013,9 +1024,9 @@
       <selection activeCell="D1" activeCellId="1" sqref="C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1071,7 +1082,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1099,7 +1110,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -1113,7 +1124,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -1169,7 +1180,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>75</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>75</v>
       </c>
@@ -1210,9 +1221,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1419,7 +1430,7 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>75</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>75</v>
       </c>
@@ -1524,9 +1535,9 @@
       <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>65</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>65</v>
       </c>
@@ -1577,7 +1588,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -1594,7 +1605,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>65</v>
       </c>
@@ -1611,7 +1622,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>70</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -1696,7 +1707,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>75</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>75</v>
       </c>
@@ -1730,7 +1741,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>75</v>
       </c>
@@ -1745,6 +1756,406 @@
       </c>
       <c r="E13">
         <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4FC5FB-8DD8-CC48-9415-894A26C06305}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>12.321428571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>17.142857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>21.071428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>23.928571428571427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>20.714285714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>21.249999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>16.071428571428569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>18.928571428571423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>23.035714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>15.535714285714283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15">
+        <v>18.749999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>20.357142857142858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>18.571428571428569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>16.071428571428569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>152</v>
+      </c>
+      <c r="B20">
+        <v>22.678571428571423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>160</v>
+      </c>
+      <c r="B21">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>168</v>
+      </c>
+      <c r="B22">
+        <v>22.499999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6277E3-AFF1-FA45-9062-E213A9069154}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.3571428571428572E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2.1428571428571429E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.2142857142857147E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4.2857142857142858E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>5.3571428571428575E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>5.8928571428571434E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>7.4999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0.10178571428571428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B9,B12)</f>
+        <v>0.14196428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B10,B12)</f>
+        <v>0.16205357142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.18214285714285716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>0.19821428571428576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>0.21964285714285711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>0.24107142857142855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>0.25178571428571428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>0.25178571428571428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>0.25714285714285717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>0.29464285714285715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>0.25178571428571428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>0.25714285714285717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>0.25178571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>0.25714285714285717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>132</v>
+      </c>
+      <c r="B24">
+        <v>0.24107142857142855</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaktimukker/Documents/MyProjects/projects/bacterial-growth-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F855BBA-477C-634C-AD71-A866DE3461F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86246F7A-C097-F943-B56E-320E47FBE0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="5" r:id="rId1"/>
@@ -1765,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4FC5FB-8DD8-CC48-9415-894A26C06305}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>9.9999999999999982</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>12.321428571428571</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>17.142857142857139</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1810,7 +1810,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>21.071428571428569</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1818,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>12.5</v>
+        <v>21.87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>48</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>23.928571428571427</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>20.714285714285712</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>72</v>
       </c>
       <c r="B10">
-        <v>21.249999999999996</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1858,7 +1858,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>16.071428571428569</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,7 @@
         <v>88</v>
       </c>
       <c r="B12">
-        <v>18.928571428571423</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
         <v>96</v>
       </c>
       <c r="B13">
-        <v>23.035714285714285</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>104</v>
       </c>
       <c r="B14">
-        <v>15.535714285714283</v>
+        <v>20.350000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>112</v>
       </c>
       <c r="B15">
-        <v>18.749999999999996</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>120</v>
       </c>
       <c r="B16">
-        <v>20.357142857142858</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1906,47 +1906,7 @@
         <v>128</v>
       </c>
       <c r="B17">
-        <v>18.571428571428569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>136</v>
-      </c>
-      <c r="B18">
-        <v>16.071428571428569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>144</v>
-      </c>
-      <c r="B19">
-        <v>17.857142857142858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>152</v>
-      </c>
-      <c r="B20">
-        <v>22.678571428571423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>160</v>
-      </c>
-      <c r="B21">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>168</v>
-      </c>
-      <c r="B22">
-        <v>22.499999999999996</v>
+        <v>15.53</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6277E3-AFF1-FA45-9062-E213A9069154}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
